--- a/medicine/Enfance/Laudec/Laudec.xlsx
+++ b/medicine/Enfance/Laudec/Laudec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laudec, né Antonio de Luca le 4 juin 1947 à Spezzano en Calabre, est un auteur de bande dessinée belge d'origine italienne. Il est surtout connu pour sa série de bande dessinée jeunesse humoristique Cédric, écrite par Raoul Cauvin et publiée depuis 1987.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonio de Luca naît le 4 juin 1947 à Spezzano en Calabre[1],[2]. Il a trois ans lorsque ses parents émigrent en Belgique et s'installent à Liège[3].
-Il grandit à Liège, tandis que son père travaille comme mineur dans les villages environnants[1]. Il étudie l'électromécanique où il obtient le diplôme en électronique et automatismes[4]. Il travaille d'abord dans une entreprise de chauffage puis comme dessinateur industriel aux ACEC[4] Charleroi dès l'âge de 22 ans, tout en tentant de se bâtir une carrière de dessinateur de bande dessinée[1]. Il publie ses premiers récits, comme Les Cornichons , dans des fanzines locaux comme À Propos, Bhof, et Outfi ! en 1976 et 1977[1].
-Mittéï ayant remarqué son travail[1], à l'occasion d'un concours de bande dessinée qu'il remporte[5], lui propose de travailler sur un projet de bande dessinée qui aboutit à la série Les Contes de Curé-la-Flûte[6], publiée dans le magazine Spirou à partir de 1979. Après de courts récits sur la vie quotidienne d'une petite ville, la série connaît dans deux longs récits à suivre, tous deux se déroulant pendant la Seconde Guerre mondiale : L'An 40 en 1983 et Marché noir et bottes à clous  en 1985[6]. La même année, Laudec assiste également François Walthéry sur les décors de quelques histoires de Natacha et Tchantchès sur le personnage folklorique emblématique de la ville de Liège Tchantchès[1].
-En 1986, il s'associe à Raoul Cauvin pour créer Cédric[7] pour le même hebdomadaire, une bande dessinée humoristique sur un petit garçon, sa famille et ses camarades de classe publiée par les éditions Dupuis. La popularité de la bande dessinée conduit à une série télévisée d'animation Cédric dans les années 1990. Par ailleurs, le même duo réalise également Taxi-Girl[8], une série de gags sur une conductrice de taxi parisienne, publiée dans Spirou de 1992 à 1998. Pour cette bande dessinée, Laudec adopte un style de dessin semi-réaliste, pour lequel il est assisté de Michel Chantraine pour les décors[4]. En 2008, une statue de Cédric, conçue par Josyanne Vanhoutte, est érigée sur la route de la bande dessinée à Middelkerke[1].
-À partir du 22e album de la série Cédric, il dessine sur écran tactile[9].
-En 1987-1988, la maison d'édition Brain Factory International publie une série de quatre volumes de bandes dessinées dans laquelle des auteurs de bande dessinée franco-belges adaptent en bande dessinée plusieurs chansons du chanteur Jacques Brel. Le deuxième volume, Les Prénoms (1987), présente une contribution de Laudec. Il contribue également à Les Enquêtes de leurs Amis (Soleil, 1989), un album collectif hommage au héros détective Gil Jourdan de Maurice Tillieux. En 1990, il rend un hommage graphique à François Walthéry dans le livre d'hommage collectif Natacha - Spécial 20e anniversaire - Nostalgia (Marsu Productions, 1990), qui célèbre les 20 ans de la série Natacha de Walthéry. Il contribue également à l'album collectif Spirou défenseur des droits de l'homme en 2019[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonio de Luca naît le 4 juin 1947 à Spezzano en Calabre,. Il a trois ans lorsque ses parents émigrent en Belgique et s'installent à Liège.
+Il grandit à Liège, tandis que son père travaille comme mineur dans les villages environnants. Il étudie l'électromécanique où il obtient le diplôme en électronique et automatismes. Il travaille d'abord dans une entreprise de chauffage puis comme dessinateur industriel aux ACEC Charleroi dès l'âge de 22 ans, tout en tentant de se bâtir une carrière de dessinateur de bande dessinée. Il publie ses premiers récits, comme Les Cornichons , dans des fanzines locaux comme À Propos, Bhof, et Outfi ! en 1976 et 1977.
+Mittéï ayant remarqué son travail, à l'occasion d'un concours de bande dessinée qu'il remporte, lui propose de travailler sur un projet de bande dessinée qui aboutit à la série Les Contes de Curé-la-Flûte, publiée dans le magazine Spirou à partir de 1979. Après de courts récits sur la vie quotidienne d'une petite ville, la série connaît dans deux longs récits à suivre, tous deux se déroulant pendant la Seconde Guerre mondiale : L'An 40 en 1983 et Marché noir et bottes à clous  en 1985. La même année, Laudec assiste également François Walthéry sur les décors de quelques histoires de Natacha et Tchantchès sur le personnage folklorique emblématique de la ville de Liège Tchantchès.
+En 1986, il s'associe à Raoul Cauvin pour créer Cédric pour le même hebdomadaire, une bande dessinée humoristique sur un petit garçon, sa famille et ses camarades de classe publiée par les éditions Dupuis. La popularité de la bande dessinée conduit à une série télévisée d'animation Cédric dans les années 1990. Par ailleurs, le même duo réalise également Taxi-Girl, une série de gags sur une conductrice de taxi parisienne, publiée dans Spirou de 1992 à 1998. Pour cette bande dessinée, Laudec adopte un style de dessin semi-réaliste, pour lequel il est assisté de Michel Chantraine pour les décors. En 2008, une statue de Cédric, conçue par Josyanne Vanhoutte, est érigée sur la route de la bande dessinée à Middelkerke.
+À partir du 22e album de la série Cédric, il dessine sur écran tactile.
+En 1987-1988, la maison d'édition Brain Factory International publie une série de quatre volumes de bandes dessinées dans laquelle des auteurs de bande dessinée franco-belges adaptent en bande dessinée plusieurs chansons du chanteur Jacques Brel. Le deuxième volume, Les Prénoms (1987), présente une contribution de Laudec. Il contribue également à Les Enquêtes de leurs Amis (Soleil, 1989), un album collectif hommage au héros détective Gil Jourdan de Maurice Tillieux. En 1990, il rend un hommage graphique à François Walthéry dans le livre d'hommage collectif Natacha - Spécial 20e anniversaire - Nostalgia (Marsu Productions, 1990), qui célèbre les 20 ans de la série Natacha de Walthéry. Il contribue également à l'album collectif Spirou défenseur des droits de l'homme en 2019.
 </t>
         </is>
       </c>
@@ -549,12 +563,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publications
-L'An 40
-1. L'An 40, Dupuis, coll. « Les Meilleurs Récits du journal de Spirou », Marcinelle, 2e trimestre 1985Scénario : Mittéï - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2-8001-1091-0),réédition 1990 : L'An 40 (Curé-la-Flûte), Soleil Productions.
-2. Marché noir et bottes à clous, MC Productions, Toulon, octobre 1988Scénario : Mittéï - Dessin : Laudec - Couleurs : Vittorio Leonardo -  (ISBN 2-87764-005-1)
-Cédric
-1. Premières Classes, Dupuis, Marcinelle, février 1989Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Leonardo -  (ISBN 2-8001-1636-6)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>L'An 40</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1. L'An 40, Dupuis, coll. « Les Meilleurs Récits du journal de Spirou », Marcinelle, 2e trimestre 1985Scénario : Mittéï - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2-8001-1091-0),réédition 1990 : L'An 40 (Curé-la-Flûte), Soleil Productions.
+2. Marché noir et bottes à clous, MC Productions, Toulon, octobre 1988Scénario : Mittéï - Dessin : Laudec - Couleurs : Vittorio Leonardo -  (ISBN 2-87764-005-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laudec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cédric</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1. Premières Classes, Dupuis, Marcinelle, février 1989Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Leonardo -  (ISBN 2-8001-1636-6)
 2. Classes de neige, Dupuis, Marcinelle, août 1989Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-1673-0)
 3. Classe tous risques, Dupuis, Marcinelle, mai 1990Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-1739-7)
 4. Papa a de la classe, Dupuis, Marcinelle, mars 1991Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-1816-4)
@@ -572,7 +632,7 @@
 16. Où sont les freins ?, Dupuis, Marcinelle, avril 2002Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3247-7)
 17. Qui a éteint la lumière ?, Dupuis, Marcinelle, novembre 2002Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3262-0)
 18. Enfin seuls !, Dupuis, Marcinelle, novembre 2003Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3353-8)
-19. On se calme[11] !, Dupuis, Marcinelle, novembre 2004Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3516-6)
+19. On se calme !, Dupuis, Marcinelle, novembre 2004Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3516-6)
 20. J'ai fini !, Dupuis, Marcinelle, novembre 2005Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3697-9)
 21. On rêvasse ?, Dupuis, Marcinelle, novembre 2006Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 2-8001-3860-2)
 22. Elle est moche !, Dupuis, Marcinelle, mars 2008Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 978-2-8001-4018-6)
@@ -588,26 +648,169 @@
 32. C'est pas du jeu !, Dupuis, Marcinelle, 1er novembre 2018Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 978-2-8001-7397-9)
 33. Sans les mains, Dupuis, Marcinelle, novembre 2019Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 979-10-34737-02-4)
 34. Couché, sale bête !, Dupuis, Marcinelle, 20 novembre 2020Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 979-10-34747-95-5)
-35. Trop tôt pour toi, gamin[12] !, Dupuis, Marcinelle, 25 mars 2022Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 979-10-34754-43-4)
+35. Trop tôt pour toi, gamin !, Dupuis, Marcinelle, 25 mars 2022Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 979-10-34754-43-4)
 36. Transport à risques, Dupuis, Marcinelle, 1er mars 2024Scénario : Raoul Cauvin Laudec - Dessin : Laudec - Couleurs : Vittorio Léonardo -  (ISBN 979-10-34762-95-8)
-HS. La BD dont tu es le héros[13] !, Dupuis, 2008Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Leonardo
-Taxi girl
-1. Vous êtes libre ?, Dupuis, Marcinelle, septembre 1994Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2800121165),Décors de Michel Chantraine.
-2. Vous aimez les bêtes ?, Dupuis, Marcinelle, avril 1996Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2800121971),Décors de Michel Chantraine.
-Collectifs
+HS. La BD dont tu es le héros !, Dupuis, 2008Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : Vittorio Leonardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laudec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Taxi girl</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1. Vous êtes libre ?, Dupuis, Marcinelle, septembre 1994Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2800121165),Décors de Michel Chantraine.
+2. Vous aimez les bêtes ?, Dupuis, Marcinelle, avril 1996Scénario : Raoul Cauvin - Dessin : Laudec - Couleurs : quadrichromie -  (ISBN 2800121971),Décors de Michel Chantraine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laudec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir les collectifs
-Collectif dont Laudec[14], Pétition : À la recherche d'Oesterheld et de tant d'autres !, Amnesty International - Belgique francophone ASBL Groupe 64, novembre 1986, 47 p. (présentation en ligne)
+Collectif dont Laudec, Pétition : À la recherche d'Oesterheld et de tant d'autres !, Amnesty International - Belgique francophone ASBL Groupe 64, novembre 1986, 47 p. (présentation en ligne)
 INT2. La B.D. chante Brel - Le Plat pays - Les Prénoms, Brain Factory, septembre 1988Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : quadrichromie -  (ISBN 1-87085-805-0),Contribution : Madeleine (4 planches).
-2. Parodies 2 - ... par leurs vrais auteurs ![15] , M.C. Productions, Toulon, novembre 1988Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : quadrichromie -  (ISBN 2-87764-011-6),Participation : Natacharmes.
-Les Enquêtes de leurs amis[16], Soleil, Toulon, décembre 1989Scénario et couleurs : Collectif - Dessin : Collectif dont Laudec -  (ISBN 2-87764-026-4),L'Hommage à Gil Jourdan et M. Tillieux
+2. Parodies 2 - ... par leurs vrais auteurs ! , M.C. Productions, Toulon, novembre 1988Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : quadrichromie -  (ISBN 2-87764-011-6),Participation : Natacharmes.
+Les Enquêtes de leurs amis, Soleil, Toulon, décembre 1989Scénario et couleurs : Collectif - Dessin : Collectif dont Laudec -  (ISBN 2-87764-026-4),L'Hommage à Gil Jourdan et M. Tillieux
 Natacha - Spécial 20e anniversaire - Nostalgia, Marsu Productions, Monaco, février 1990Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : quadrichromie -  (ISBN 2-907159-04-6)Participation : Hommage à François Walthéry.
-Hommage à Paul Deliège - Olne autrefois[17], Thierry Colin, Olne, juin 1997Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : noir et blanc,Tirage à 150 exemplaires numérotés et signés.
+Hommage à Paul Deliège - Olne autrefois, Thierry Colin, Olne, juin 1997Scénario : collectif - Dessin : collectif dont Laudec - Couleurs : noir et blanc,Tirage à 150 exemplaires numérotés et signés.
 Astérix et ses amis, Les Éditions Albert René, Paris, 25 avril 2007Scénario : collectif dont Raoul Cauvin - Dessin : collectif dont Laudec - Couleurs : quadrichromie -  (ISBN 978-2-86497-210-5),Participation : La Communication selon les Gaulois.
-Spirou défenseur des droits de l'homme[10], Dupuis, Marcinelle, 14 juin 2019Scénario : collectif - Dessin et couleurs : collectif dont Laudec -  (ISBN 979-10-34739-25-7).
-Para BD
-À l'occasion, Laudec réalise des affiches[18], ex-libris, posters, cartes ou cartons, autocollants, puzzles et autres : le merchandising autour de Cédric étant important[19].
-Illustrations livres jeunesse
-C'est en 2002 que Cédric y fait sa première apparition dans un livre relié sans images. Ils comptent aujourd'hui vingt-trois titres dans la Bibliothèque rose.
+Spirou défenseur des droits de l'homme, Dupuis, Marcinelle, 14 juin 2019Scénario : collectif - Dessin et couleurs : collectif dont Laudec -  (ISBN 979-10-34739-25-7).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laudec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Para BD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion, Laudec réalise des affiches, ex-libris, posters, cartes ou cartons, autocollants, puzzles et autres : le merchandising autour de Cédric étant important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laudec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laudec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrations livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 2002 que Cédric y fait sa première apparition dans un livre relié sans images. Ils comptent aujourd'hui vingt-trois titres dans la Bibliothèque rose.
 Moi, j'aime l'école (2002)
 Mon papa est astronaute (2002)
 La Fête de l'école (2002)
@@ -635,34 +838,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Laudec</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Laudec</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1991 :  prix d'Honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Cédric[20] ;
-2007 :  Crayon d'or au Festival BD de Middelkerke avec Raoul Cauvin pour Cédric[20].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1991 :  prix d'Honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Cédric ;
+2007 :  Crayon d'or au Festival BD de Middelkerke avec Raoul Cauvin pour Cédric.</t>
         </is>
       </c>
     </row>
